--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25600" yWindow="2620" windowWidth="25600" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -85,12 +85,83 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -473,7 +544,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="2" min="1" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="8.83203125" customWidth="1" style="2" min="2" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,6 +558,9 @@
         <is>
           <t>California</t>
         </is>
+      </c>
+      <c r="C1" s="10" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">

--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us-analysis\InputData\elec\BTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\BTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7EED0E4-3621-4CED-AA03-E0C0C4F7BD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D74A9C-D91B-4E2A-9782-2F5694F3789B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1800" windowWidth="14400" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>BTC BAU Transmission Capacity</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>BAU Transmission Capacity (MW-miles)</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,6 +264,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -336,9 +340,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,9 +380,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,26 +415,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,26 +450,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -656,23 +626,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="2" max="2" width="42.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="10">
+        <v>45237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -680,65 +656,65 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B5" s="6">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="44.25" x14ac:dyDescent="0.75">
       <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B12" s="6">
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B16" s="5"/>
     </row>
   </sheetData>
@@ -758,53 +734,53 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="36.453125" customWidth="1"/>
     <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -816,7 +792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -828,7 +804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -840,12 +816,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -856,7 +832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -867,7 +843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -879,7 +855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>2010</v>
       </c>
@@ -888,7 +864,7 @@
         <v>175000000</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>2050</v>
       </c>
@@ -897,7 +873,7 @@
         <v>180319148.93617022</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1022,7 +998,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A25" s="2" cm="1">
         <f t="array" ref="A25">TREND($B$21:$B$22,$A$21:$A$22,A24)</f>
         <v>175000000</v>
@@ -1188,12 +1164,12 @@
         <v>180319148.93617022</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1202,7 +1178,7 @@
         <v>150000000</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>2020</v>
       </c>
@@ -1297,7 +1273,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.75">
       <c r="A32" s="2">
         <f>B29</f>
         <v>150000000</v>
@@ -1423,10 +1399,10 @@
         <v>153393665.15837106</v>
       </c>
     </row>
-    <row r="34" spans="11:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="11:21" x14ac:dyDescent="0.75">
       <c r="U34" s="2"/>
     </row>
-    <row r="36" spans="11:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="11:21" x14ac:dyDescent="0.75">
       <c r="K36" s="9"/>
     </row>
   </sheetData>
@@ -1443,13 +1419,13 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1458,7 +1434,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1467,7 +1443,7 @@
         <v>33000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1476,7 +1452,7 @@
         <v>2500000000</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1486,17 +1462,17 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.75">
       <c r="B9">
         <v>2020</v>
       </c>
@@ -1591,7 +1567,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1718,7 +1694,7 @@
         <v>1287878.7878787876</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.75">
       <c r="K13" s="9"/>
     </row>
   </sheetData>
@@ -1737,13 +1713,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="32" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.75">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -1838,7 +1814,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1967,7 +1943,7 @@
         <v>154681543.94624984</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.75">
       <c r="L4" s="3"/>
     </row>
   </sheetData>
